--- a/output/tables/table_appendix_asset_output_livestock_aquaculture_2006-2018.xlsx
+++ b/output/tables/table_appendix_asset_output_livestock_aquaculture_2006-2018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">Note: All values are in constant 2014-2016 US Dollars</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Aquaculture Quantities (Tonnes)</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,614B</t>
+    <t xml:space="preserve">$1,615B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,477B</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">82M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,573B</t>
+    <t xml:space="preserve">$1,575B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,445B</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">79M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,490B</t>
+    <t xml:space="preserve">$1,492B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,397B</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">76M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,462B</t>
+    <t xml:space="preserve">$1,466B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,379B</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">73M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,439B</t>
+    <t xml:space="preserve">$1,442B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,364B</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">71M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,423B</t>
+    <t xml:space="preserve">$1,426B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,337B</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">67M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,425B</t>
+    <t xml:space="preserve">$1,427B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,313B</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">63M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,414B</t>
+    <t xml:space="preserve">$1,417B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,282B</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">60M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,412B</t>
+    <t xml:space="preserve">$1,415B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,264B</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">55M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,392B</t>
+    <t xml:space="preserve">$1,403B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,217B</t>
@@ -200,9 +200,6 @@
     <t xml:space="preserve">53M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,353B</t>
-  </si>
-  <si>
     <t xml:space="preserve">$1,186B</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t xml:space="preserve">50M</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,341B</t>
+    <t xml:space="preserve">$1,354B</t>
   </si>
   <si>
     <t xml:space="preserve">$1,156B</t>
@@ -823,20 +820,20 @@
         <v>2007</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -844,20 +841,20 @@
         <v>2006</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
